--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaVoto.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaVoto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Trivia\gameTrivia\src\assets\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA58B8-BA5E-433E-AC6D-ACCE89C7A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08713DA2-BDCA-42CA-A65D-B996E2562E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2475" windowWidth="23460" windowHeight="11385" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,41 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Alejandro</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B204AEC4-74C0-4250-A783-F6128290DACB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Poner la opción correcta, Ejemplo: A
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>PREGUNTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPCION A </t>
-  </si>
-  <si>
-    <t>OPCION B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>OPCION C</t>
   </si>
@@ -77,9 +44,6 @@
     <t>OPCION D</t>
   </si>
   <si>
-    <t>CORRECTA</t>
-  </si>
-  <si>
     <t>¿Ejemplo?</t>
   </si>
   <si>
@@ -92,7 +56,52 @@
     <t>Ejemplo Opcion 3</t>
   </si>
   <si>
-    <t>A</t>
+    <t>OPCION E</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 4</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 5</t>
+  </si>
+  <si>
+    <t>PREGUNTA*</t>
+  </si>
+  <si>
+    <t>OPCION A *</t>
+  </si>
+  <si>
+    <t>OPCION B*</t>
+  </si>
+  <si>
+    <t>OPCION F</t>
+  </si>
+  <si>
+    <t>OPCION G</t>
+  </si>
+  <si>
+    <t>OPCION H</t>
+  </si>
+  <si>
+    <t>OPCION I</t>
+  </si>
+  <si>
+    <t>OPCION J</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 6</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 7</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 8</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 9</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 10</t>
   </si>
 </sst>
 </file>
@@ -108,10 +117,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,18 +463,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F0AF0-17E7-49D1-BBAE-C9A38D86A7D5}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F0AF0-17E7-49D1-BBAE-C9A38D86A7D5}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,54 +482,85 @@
     <col min="1" max="1" width="31.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaVoto.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaVoto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08713DA2-BDCA-42CA-A65D-B996E2562E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E753D1C-9EEE-4794-A5A1-78728E020AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="1170" yWindow="1530" windowWidth="23940" windowHeight="12630" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>OPCION C</t>
-  </si>
-  <si>
-    <t>OPCION D</t>
-  </si>
-  <si>
     <t>¿Ejemplo?</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>Ejemplo Opcion 3</t>
   </si>
   <si>
-    <t>OPCION E</t>
-  </si>
-  <si>
     <t>Ejemplo Opcion 4</t>
   </si>
   <si>
@@ -68,27 +59,6 @@
     <t>PREGUNTA*</t>
   </si>
   <si>
-    <t>OPCION A *</t>
-  </si>
-  <si>
-    <t>OPCION B*</t>
-  </si>
-  <si>
-    <t>OPCION F</t>
-  </si>
-  <si>
-    <t>OPCION G</t>
-  </si>
-  <si>
-    <t>OPCION H</t>
-  </si>
-  <si>
-    <t>OPCION I</t>
-  </si>
-  <si>
-    <t>OPCION J</t>
-  </si>
-  <si>
     <t>Ejemplo Opcion 6</t>
   </si>
   <si>
@@ -102,6 +72,36 @@
   </si>
   <si>
     <t>Ejemplo Opcion 10</t>
+  </si>
+  <si>
+    <t>OPCIÓN A *</t>
+  </si>
+  <si>
+    <t>OPCIÓN B*</t>
+  </si>
+  <si>
+    <t>OPCIÓN C</t>
+  </si>
+  <si>
+    <t>OPCIÓN D</t>
+  </si>
+  <si>
+    <t>OPCIÓN E</t>
+  </si>
+  <si>
+    <t>OPCIÓN F</t>
+  </si>
+  <si>
+    <t>OPCIÓN G</t>
+  </si>
+  <si>
+    <t>OPCIÓN H</t>
+  </si>
+  <si>
+    <t>OPCIÓN I</t>
+  </si>
+  <si>
+    <t>OPCIÓN J</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,72 +491,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
